--- a/Base de datos/tablas.xlsx
+++ b/Base de datos/tablas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prueba\prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROYECTO_SIGEDOC\SIGEDOC\Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72C157B-855F-4245-98DA-E418BF873A53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B389A7D-A7AE-42D7-9D3E-3B59A6BDE27F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{375CCFBA-C5CB-4C66-B980-6EC719382F9C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>Tabla de Usuario</t>
   </si>
@@ -271,6 +271,42 @@
   </si>
   <si>
     <t>Tomada de toda la info</t>
+  </si>
+  <si>
+    <t>fecha_Creado</t>
+  </si>
+  <si>
+    <t>25/89/2013</t>
+  </si>
+  <si>
+    <t>*ver si colocamos un calendar para la fecha de creacion, por los documentos que se deben de subir antes</t>
+  </si>
+  <si>
+    <t>Numero_Referencia</t>
+  </si>
+  <si>
+    <t>Id_Rol</t>
+  </si>
+  <si>
+    <t>nombreRol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripcion </t>
+  </si>
+  <si>
+    <t>Tabla de permisos</t>
+  </si>
+  <si>
+    <t>idPermiso</t>
+  </si>
+  <si>
+    <t>IdRol</t>
+  </si>
+  <si>
+    <t>Tabla Roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; </t>
   </si>
 </sst>
 </file>
@@ -385,7 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,41 +463,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -485,13 +527,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -857,632 +899,745 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB104980-8D69-487B-952D-A40CEBF0CC0C}">
-  <dimension ref="A2:O44"/>
+  <dimension ref="B2:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="E49" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="11.42578125" style="3"/>
-    <col min="14" max="14" width="13" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" style="3" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" style="3"/>
+    <col min="15" max="15" width="13" style="3" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>1234</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="H7" s="2"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="H11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="10">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10">
         <v>2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>2</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="K13" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
         <v>3</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
         <v>2</v>
       </c>
-      <c r="G14" s="10">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="H14" s="10">
         <v>3</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="6">
+        <v>3</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="K14" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
         <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
         <v>3</v>
       </c>
-      <c r="G15" s="11">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="H15" s="11">
         <v>4</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="2">
+        <v>4</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="F18" s="12"/>
-      <c r="I18" s="3" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="J18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="O19" s="13"/>
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
         <v>2</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="E21" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>2222222</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
       <c r="I21" s="3">
         <v>1</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="3">
+      <c r="G22" s="2"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="3">
         <v>2</v>
       </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
       <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="2"/>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="H23" s="3">
+      <c r="G23" s="2"/>
+      <c r="I23" s="3">
         <v>3</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2</v>
       </c>
-      <c r="J23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="23"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="24"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="C26" s="21"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="C27" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="26">
-        <v>1</v>
-      </c>
-      <c r="B28" s="26">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3" t="s">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="23">
+        <v>1</v>
+      </c>
+      <c r="C28" s="23">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="26">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="23">
         <v>2</v>
       </c>
-      <c r="B29" s="26">
+      <c r="C29" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D33" s="3" t="s">
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E33" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="I33" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>1</v>
-      </c>
-      <c r="B35" s="2" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="6">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1</v>
-      </c>
-      <c r="F35" s="6" t="s">
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="2"/>
+      <c r="I35" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="6"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="2"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="6"/>
+      <c r="E37" s="2"/>
       <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D40" s="1"/>
-      <c r="F40" s="17" t="s">
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+      <c r="G40" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="C41" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="D41" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>1</v>
-      </c>
-      <c r="B42" s="6" t="s">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="7">
+      <c r="D42" s="7">
         <v>2315454564564</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="6">
+      <c r="F42" s="6">
         <v>2019</v>
       </c>
-      <c r="F42" s="2">
-        <v>1</v>
-      </c>
       <c r="G42" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
         <v>2</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="19">
+      <c r="C43" s="6"/>
+      <c r="D43" s="17">
         <v>3666366</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="6">
+      <c r="F43" s="6">
         <v>2019</v>
       </c>
-      <c r="F43" s="2">
-        <v>1</v>
-      </c>
       <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="2"/>
+      <c r="F44" s="6"/>
       <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="G53" s="28"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="28"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A39:G39"/>
+  <mergeCells count="8">
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D21" r:id="rId1" xr:uid="{DCA0779F-5A42-450F-B65C-2D4C4A7E9A16}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{A900865D-4E0E-4897-958A-F269939223D1}"/>
+    <hyperlink ref="E21" r:id="rId1" xr:uid="{DCA0779F-5A42-450F-B65C-2D4C4A7E9A16}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{A900865D-4E0E-4897-958A-F269939223D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
